--- a/Self-Study/result/Result_Searching_1.xlsx
+++ b/Self-Study/result/Result_Searching_1.xlsx
@@ -55,7 +55,7 @@
     <t>파이썬 딕셔너리</t>
   </si>
   <si>
-    <t>2021-12-22</t>
+    <t>2021-12-23</t>
   </si>
 </sst>
 </file>
